--- a/push to traveloka corptech/Traveloka_DataAutomation_Portal_CybersourceMaybank/Data/Config.xlsx
+++ b/push to traveloka corptech/Traveloka_DataAutomation_Portal_CybersourceMaybank/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\DataAutomation\Enhancement\Traveloka_DataAutomation_Portal_CybersourceMaybank\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF08AFA2-97F2-487E-B751-E7D6A1263E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB2996D-EC3D-405E-8AE6-4B317C86A61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2610" windowWidth="21600" windowHeight="11370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6255" yWindow="2715" windowWidth="21600" windowHeight="11370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -162,58 +162,61 @@
     <t>Path of Master Folder</t>
   </si>
   <si>
+    <t>SheetIdConfig</t>
+  </si>
+  <si>
+    <t>PathSAKey</t>
+  </si>
+  <si>
+    <t>CredMail</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Documents\ECIRPA</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMasterFolder</t>
+  </si>
+  <si>
+    <t>RPA_Moon_Cred_Gmail</t>
+  </si>
+  <si>
+    <t>Cybersource Maybank</t>
+  </si>
+  <si>
+    <t>RunFlag</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathSaKey</t>
+  </si>
+  <si>
+    <t>PathDownloadChrome</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathDownloadChrome</t>
+  </si>
+  <si>
+    <t>DialogDownloadChrome</t>
+  </si>
+  <si>
+    <t>RPA_Moon_DialogDownloadChrome</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>RPA_Moon_SenderName</t>
+  </si>
+  <si>
+    <t>RPA_Moon_UploadBucket</t>
+  </si>
+  <si>
+    <t>RPA_Moon_SheetIdConfig</t>
+  </si>
+  <si>
     <t>PathMailTemplate</t>
   </si>
   <si>
-    <t>SheetIdConfig</t>
-  </si>
-  <si>
-    <t>PathSAKey</t>
-  </si>
-  <si>
-    <t>CredMail</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Documents\ECIRPA</t>
-  </si>
-  <si>
-    <t>RPA_Moon_Cred_Gmail</t>
-  </si>
-  <si>
-    <t>Cybersource Maybank</t>
-  </si>
-  <si>
-    <t>PathDownloadChrome</t>
-  </si>
-  <si>
-    <t>DialogDownloadChrome</t>
-  </si>
-  <si>
-    <t>RPA_Moon_DialogDownloadChrome</t>
-  </si>
-  <si>
-    <t>SenderName</t>
-  </si>
-  <si>
-    <t>RPA_Moon_SenderName</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_SheetIdConfig</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMasterFolder</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathSaKey</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathDownloadChrome</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_UploadBucket</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMailTemplate</t>
+    <t>RPA_Moon_PathMailTemplate</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -276,9 +279,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +596,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.95" customHeight="1"/>
@@ -646,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -678,46 +678,28 @@
         <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.3" customHeight="1"/>
@@ -2879,13 +2861,13 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.875" customWidth="1"/>
-    <col min="2" max="2" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="26" width="65.5" customWidth="1"/>
   </cols>
@@ -2927,228 +2909,60 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.3" customHeight="1"/>
